--- a/ExecutionTestData/6/TestData.xlsx
+++ b/ExecutionTestData/6/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finalList9Feb\batches\Batch6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\skippedBatch6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="169">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,15 +458,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -479,68 +473,86 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM10_Android_10.0.0_a58e4</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ7Pro_Android_8.1.0_42e4e</t>
-  </si>
-  <si>
-    <t>LENOVO_M10Plus_Android_10.0.0_2ba36</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyOnMax_Android_8.1.0_85564</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoG5_Android_8.1.0_c3d6c</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi6_Android_9.0.0_ed157</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote9_Android_10.0.0_a7454</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi8_Android_9.0.0_2dade</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ4_Android_10.0.0_889f0</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ6_Android_10.0.0_482da</t>
-  </si>
-  <si>
-    <t>NOKIA_2.3_Android_10.0.0_8c175</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ7Prime_Android_8.1.0_78777</t>
-  </si>
-  <si>
-    <t>OPPO_A3s_Android_8.1.0_37894</t>
-  </si>
-  <si>
-    <t>OPPO_Realme2_Android_9.0.0_911fd</t>
+    <t>15.0.0</t>
+  </si>
+  <si>
+    <t>15.0.2</t>
+  </si>
+  <si>
+    <t>15.2.1</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
+  </si>
+  <si>
+    <t>https://us.pcloudy.com</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11_iOS_15.2.1_51b24</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11Pro_iOS_13.0.0_3f7e0</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11Pro_iOS_15.2.1_f9522</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11ProMax_iOS_14.4.2_de1da</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13_iOS_15.0.0_ad341</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13_iOS_15.2.0_fb8f5</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8_iOS_14.1.0_81551</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8plus_iOS_12.0.1_fa09b</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneSE_iOS_14.6.0_9d61f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXR_iOS_12.0.1_93659</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXS_iOS_12.0.0_8bab6</t>
+  </si>
+  <si>
+    <t>13.0.0</t>
+  </si>
+  <si>
+    <t>14.4.2</t>
+  </si>
+  <si>
+    <t>15.2.0</t>
+  </si>
+  <si>
+    <t>14.4.0</t>
+  </si>
+  <si>
+    <t>12.0.1</t>
+  </si>
+  <si>
+    <t>14.6.0</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,11 +594,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -602,7 +609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -637,21 +644,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,35 +687,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1042,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1128,7 +1138,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1178,7 +1188,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1225,650 +1235,481 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="20" width="17.140625" style="12"/>
+    <col min="1" max="1" width="17.140625" style="20"/>
+    <col min="2" max="2" width="37.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="42" style="20" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="17.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="K2" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q2" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="T2" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="I5" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14">
+        <v>6</v>
+      </c>
+      <c r="H9" s="14">
+        <v>7</v>
+      </c>
+      <c r="I9" s="14">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18">
-        <v>2</v>
-      </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
+      <c r="J9" s="14">
         <v>9</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="14">
         <v>10</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="14">
         <v>11</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="14">
         <v>12</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="14">
         <v>13</v>
       </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>16</v>
-      </c>
-      <c r="R9" s="18">
-        <v>17</v>
-      </c>
-      <c r="S9" s="18">
-        <v>18</v>
-      </c>
-      <c r="T9" s="18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    </row>
+    <row r="10" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:T2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:K2">
+    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:T2">
+  <conditionalFormatting sqref="B2:K2">
+    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
+      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:N2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
+      <formula>LEFT((L2),LEN("Working"))=("Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:N2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+      <formula>LEFT((L2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1881,7 +1722,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U3"/>
+      <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,7 +1812,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -2036,7 +1877,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="16"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2152,7 +1993,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -2178,7 +2019,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="17"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -2255,327 +2096,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="12" t="s">
         <v>138</v>
       </c>
     </row>

--- a/ExecutionTestData/6/TestData.xlsx
+++ b/ExecutionTestData/6/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\skippedBatch6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="164">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -497,9 +497,6 @@
     <t>APPLE_iPhone11Pro_iOS_15.2.1_f9522</t>
   </si>
   <si>
-    <t>APPLE_iPhone11ProMax_iOS_14.4.2_de1da</t>
-  </si>
-  <si>
     <t>APPLE_iPhone13_iOS_15.0.0_ad341</t>
   </si>
   <si>
@@ -515,24 +512,15 @@
     <t>APPLE_iPhone8_iOS_14.1.0_81551</t>
   </si>
   <si>
-    <t>APPLE_iPhone8plus_iOS_12.0.1_fa09b</t>
-  </si>
-  <si>
     <t>APPLE_iPhoneSE_iOS_14.6.0_9d61f</t>
   </si>
   <si>
     <t>APPLE_iPhoneXR_iOS_12.0.1_93659</t>
   </si>
   <si>
-    <t>APPLE_iPhoneXS_iOS_12.0.0_8bab6</t>
-  </si>
-  <si>
     <t>13.0.0</t>
   </si>
   <si>
-    <t>14.4.2</t>
-  </si>
-  <si>
     <t>15.2.0</t>
   </si>
   <si>
@@ -543,9 +531,6 @@
   </si>
   <si>
     <t>14.6.0</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
   </si>
 </sst>
 </file>
@@ -699,12 +684,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -712,6 +691,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1235,33 +1220,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="20"/>
-    <col min="2" max="2" width="37.85546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="42" style="20" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="17.140625" style="20"/>
+    <col min="1" max="1" width="17.140625" style="18"/>
+    <col min="2" max="2" width="37.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="42" style="18" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="17.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>149</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>151</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -1285,62 +1269,44 @@
       <c r="K1" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="D2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="G2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="I2" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -1373,238 +1339,184 @@
       <c r="K3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="J4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="K4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="L7" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="L8" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="14">
@@ -1637,79 +1549,61 @@
       <c r="K9" s="14">
         <v>10</v>
       </c>
-      <c r="L9" s="14">
-        <v>11</v>
-      </c>
-      <c r="M9" s="14">
-        <v>12</v>
-      </c>
-      <c r="N9" s="14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:K2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:N2">
+  <conditionalFormatting sqref="J2:K2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
-      <formula>LEFT((L2),LEN("Working"))=("Working")</formula>
+      <formula>LEFT((J2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:N2">
+  <conditionalFormatting sqref="J2:K2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((L2),LEN("Not Working"))=("Not Working")</formula>
+      <formula>LEFT((J2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1812,7 +1706,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1877,7 +1771,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1993,7 +1887,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -2019,7 +1913,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/6/TestData.xlsx
+++ b/ExecutionTestData/6/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_skipbatch\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="162">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -482,9 +482,6 @@
     <t>15.2.1</t>
   </si>
   <si>
-    <t>14.1.0</t>
-  </si>
-  <si>
     <t>https://us.pcloudy.com</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
   </si>
   <si>
     <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone8_iOS_14.1.0_81551</t>
   </si>
   <si>
     <t>APPLE_iPhoneSE_iOS_14.6.0_9d61f</t>
@@ -1123,7 +1117,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1173,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1220,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,42 +1229,39 @@
     <col min="5" max="16384" width="17.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
@@ -1278,7 +1269,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>146</v>
@@ -1287,25 +1278,22 @@
         <v>144</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>145</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>147</v>
-      </c>
       <c r="J2" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
@@ -1336,11 +1324,8 @@
       <c r="J3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
@@ -1366,16 +1351,13 @@
         <v>41</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
@@ -1406,11 +1388,8 @@
       <c r="J5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
@@ -1441,11 +1420,8 @@
       <c r="J6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>28</v>
       </c>
@@ -1476,11 +1452,8 @@
       <c r="J7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
@@ -1511,11 +1484,8 @@
       <c r="J8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1541,16 +1511,13 @@
         <v>7</v>
       </c>
       <c r="I9" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="14">
-        <v>9</v>
-      </c>
-      <c r="K9" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>31</v>
       </c>
@@ -1581,29 +1548,26 @@
       <c r="J10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:I2">
+  <conditionalFormatting sqref="B2:H2">
     <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:I2">
+  <conditionalFormatting sqref="B2:H2">
     <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K2">
+  <conditionalFormatting sqref="I2:J2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
-      <formula>LEFT((J2),LEN("Working"))=("Working")</formula>
+      <formula>LEFT((I2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K2">
+  <conditionalFormatting sqref="I2:J2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((J2),LEN("Not Working"))=("Not Working")</formula>
+      <formula>LEFT((I2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExecutionTestData/6/TestData.xlsx
+++ b/ExecutionTestData/6/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_skipbatch\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_skipbatch\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="160">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -497,9 +497,6 @@
     <t>APPLE_iPhone13_iOS_15.0.0_ad341</t>
   </si>
   <si>
-    <t>APPLE_iPhone13_iOS_15.2.0_fb8f5</t>
-  </si>
-  <si>
     <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
   </si>
   <si>
     <t>13.0.0</t>
-  </si>
-  <si>
-    <t>15.2.0</t>
   </si>
   <si>
     <t>14.4.0</t>
@@ -1214,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1223,7 @@
     <col min="5" max="16384" width="17.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
@@ -1257,11 +1251,8 @@
       <c r="I1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
@@ -1269,7 +1260,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>146</v>
@@ -1278,22 +1269,19 @@
         <v>144</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>159</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
@@ -1321,11 +1309,8 @@
       <c r="I3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
@@ -1342,22 +1327,19 @@
         <v>38</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
@@ -1385,11 +1367,8 @@
       <c r="I5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
@@ -1417,11 +1396,8 @@
       <c r="I6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>28</v>
       </c>
@@ -1449,11 +1425,8 @@
       <c r="I7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
@@ -1481,11 +1454,8 @@
       <c r="I8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1502,22 +1472,19 @@
         <v>4</v>
       </c>
       <c r="F9" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I9" s="14">
-        <v>9</v>
-      </c>
-      <c r="J9" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>31</v>
       </c>
@@ -1545,29 +1512,26 @@
       <c r="I10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:H2">
+  <conditionalFormatting sqref="B2:G2">
     <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H2">
+  <conditionalFormatting sqref="B2:G2">
     <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J2">
+  <conditionalFormatting sqref="H2:I2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
-      <formula>LEFT((I2),LEN("Working"))=("Working")</formula>
+      <formula>LEFT((H2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J2">
+  <conditionalFormatting sqref="H2:I2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((I2),LEN("Not Working"))=("Not Working")</formula>
+      <formula>LEFT((H2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExecutionTestData/6/TestData.xlsx
+++ b/ExecutionTestData/6/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_skipbatch\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="153">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -118,15 +118,6 @@
   </si>
   <si>
     <t>AppName</t>
-  </si>
-  <si>
-    <t>DBS</t>
-  </si>
-  <si>
-    <t>sakshi.juneja@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -458,6 +449,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -473,52 +467,37 @@
     <t>121212</t>
   </si>
   <si>
-    <t>15.0.0</t>
-  </si>
-  <si>
-    <t>15.0.2</t>
-  </si>
-  <si>
-    <t>15.2.1</t>
-  </si>
-  <si>
-    <t>https://us.pcloudy.com</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11_iOS_15.2.1_51b24</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11Pro_iOS_13.0.0_3f7e0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11Pro_iOS_15.2.1_f9522</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13_iOS_15.0.0_ad341</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneSE_iOS_14.6.0_9d61f</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXR_iOS_12.0.1_93659</t>
-  </si>
-  <si>
-    <t>13.0.0</t>
-  </si>
-  <si>
-    <t>14.4.0</t>
-  </si>
-  <si>
-    <t>12.0.1</t>
-  </si>
-  <si>
-    <t>14.6.0</t>
+    <t>https://ind-west.pcloudy.com</t>
+  </si>
+  <si>
+    <t>XIAOMI_Mi11X_Android_11.0.0_9020d</t>
+  </si>
+  <si>
+    <t>REALME_realmeGTNeo2_Android_11.0.0_39c53</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote8_Android_11.0.0_da311</t>
+  </si>
+  <si>
+    <t>iWEALTH</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA22_Android_11.0.0_74fa6</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM42_Android_11.0.0_95586</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiGo_Android_8.1.0_1d174</t>
+  </si>
+  <si>
+    <t>REALME_8s_Android_11.0.0_403e0</t>
+  </si>
+  <si>
+    <t>VIVO_Y15_Android_9.0.0_6bc8e</t>
+  </si>
+  <si>
+    <t>ONEPLUS_Nord2_Android_11.0.0_9e5b2</t>
   </si>
 </sst>
 </file>
@@ -582,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -617,6 +596,21 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,25 +654,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,7 +1018,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1111,7 +1103,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1138,13 +1130,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1161,7 +1153,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1188,13 +1180,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1208,330 +1200,327 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="18"/>
-    <col min="2" max="2" width="37.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="42" style="18" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="17.140625" style="18"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="15" t="s">
+    </row>
+    <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="17" t="s">
+    </row>
+    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14">
-        <v>2</v>
-      </c>
-      <c r="D9" s="14">
-        <v>3</v>
-      </c>
-      <c r="E9" s="14">
-        <v>4</v>
-      </c>
-      <c r="F9" s="14">
-        <v>6</v>
-      </c>
-      <c r="G9" s="14">
-        <v>7</v>
-      </c>
-      <c r="H9" s="14">
-        <v>9</v>
-      </c>
-      <c r="I9" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G2">
-    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:H2">
+    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G2">
-    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2:H2">
+    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
-      <formula>LEFT((H2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((H2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1543,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,67 +1624,67 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>51</v>
-      </c>
-      <c r="S2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1763,32 +1752,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1816,28 +1805,28 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1866,32 +1855,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1918,328 +1907,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/6/TestData.xlsx
+++ b/ExecutionTestData/6/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="165">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -449,9 +449,6 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -479,9 +476,6 @@
     <t>XIAOMI_RedmiNote8_Android_11.0.0_da311</t>
   </si>
   <si>
-    <t>iWEALTH</t>
-  </si>
-  <si>
     <t>SAMSUNG_GalaxyA22_Android_11.0.0_74fa6</t>
   </si>
   <si>
@@ -494,10 +488,52 @@
     <t>REALME_8s_Android_11.0.0_403e0</t>
   </si>
   <si>
-    <t>VIVO_Y15_Android_9.0.0_6bc8e</t>
-  </si>
-  <si>
-    <t>ONEPLUS_Nord2_Android_11.0.0_9e5b2</t>
+    <t>APPLE_iPhoneXS_iOS_15.0.1_5b352</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12_iOS_15.0.0_03540</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12ProMax_iOS_15.1.1_ebe7c</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12Pro_iOS_14.1.0_51937</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11Pro_iOS_15.2.0_13a6e</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11ProMax_iOS_15.1.0_17a94</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXR_iOS_15.1.0_f0af6</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11_iOS_15.1.0_2832d</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneX_iOS_15.1.0_9431f</t>
+  </si>
+  <si>
+    <t>DBS</t>
+  </si>
+  <si>
+    <t>15.0.1</t>
+  </si>
+  <si>
+    <t>15.0.0</t>
+  </si>
+  <si>
+    <t>15.1.1</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
+  </si>
+  <si>
+    <t>15.2.0</t>
+  </si>
+  <si>
+    <t>15.1.0</t>
   </si>
 </sst>
 </file>
@@ -561,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -614,12 +650,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,6 +722,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,7 +734,23 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1018,7 +1086,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1103,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1153,7 +1221,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1200,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,218 +1281,266 @@
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="12"/>
+    <col min="8" max="10" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>144</v>
+      <c r="B1" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>143</v>
-      </c>
       <c r="F1" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1449,78 +1565,110 @@
       <c r="H9" s="18">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H2">
-    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
+    <cfRule type="beginsWith" dxfId="5" priority="5" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:H2">
-    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
+    <cfRule type="beginsWith" dxfId="4" priority="6" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
+      <formula>LEFT((I2),LEN("Working"))=("Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
+      <formula>LEFT((I2),LEN("Not Working"))=("Not Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
+      <formula>LEFT((J2),LEN("Working"))=("Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
+      <formula>LEFT((J2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1532,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,7 +1771,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
@@ -1688,7 +1836,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1804,7 +1952,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B12" t="s">
@@ -1830,7 +1978,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/6/TestData.xlsx
+++ b/ExecutionTestData/6/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\New folder\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="149">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>AppName</t>
+  </si>
+  <si>
+    <t>DBS</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -242,12 +245,6 @@
     <t>M4520239IUID</t>
   </si>
   <si>
-    <t>divya.devi@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>r36d4py9mtkykt29c925c7mg</t>
-  </si>
-  <si>
     <t>dbs_android_UAT_7_10_003_532.apk</t>
   </si>
   <si>
@@ -464,76 +461,31 @@
     <t>121212</t>
   </si>
   <si>
-    <t>https://ind-west.pcloudy.com</t>
-  </si>
-  <si>
-    <t>XIAOMI_Mi11X_Android_11.0.0_9020d</t>
-  </si>
-  <si>
-    <t>REALME_realmeGTNeo2_Android_11.0.0_39c53</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote8_Android_11.0.0_da311</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA22_Android_11.0.0_74fa6</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM42_Android_11.0.0_95586</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiGo_Android_8.1.0_1d174</t>
-  </si>
-  <si>
-    <t>REALME_8s_Android_11.0.0_403e0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXS_iOS_15.0.1_5b352</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12_iOS_15.0.0_03540</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12ProMax_iOS_15.1.1_ebe7c</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12Pro_iOS_14.1.0_51937</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11Pro_iOS_15.2.0_13a6e</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11ProMax_iOS_15.1.0_17a94</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXR_iOS_15.1.0_f0af6</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11_iOS_15.1.0_2832d</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneX_iOS_15.1.0_9431f</t>
-  </si>
-  <si>
-    <t>DBS</t>
-  </si>
-  <si>
-    <t>15.0.1</t>
-  </si>
-  <si>
-    <t>15.0.0</t>
-  </si>
-  <si>
-    <t>15.1.1</t>
-  </si>
-  <si>
-    <t>14.1.0</t>
-  </si>
-  <si>
-    <t>15.2.0</t>
-  </si>
-  <si>
-    <t>15.1.0</t>
+    <t>APPLE_iPhone11_iOS_15.2.1_51b24</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
+  </si>
+  <si>
+    <t>15.2.1</t>
+  </si>
+  <si>
+    <t>15.0.2</t>
+  </si>
+  <si>
+    <t>14.4.0</t>
+  </si>
+  <si>
+    <t>https://us.pcloudy.com</t>
+  </si>
+  <si>
+    <t>shafqat.ali@crestechsoftware.com</t>
+  </si>
+  <si>
+    <t>53zsqk4ddnvzrsmysky84dn3</t>
   </si>
 </sst>
 </file>
@@ -597,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -637,31 +589,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -721,8 +658,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,39 +670,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1085,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1171,7 +1075,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1198,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1221,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1248,13 +1152,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1268,87 +1172,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="8" max="10" width="17.140625" style="12"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>149</v>
+      <c r="B1" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1361,186 +1225,78 @@
       <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1548,127 +1304,35 @@
         <v>1</v>
       </c>
       <c r="C9" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
         <v>5</v>
       </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:H2">
-    <cfRule type="beginsWith" dxfId="5" priority="5" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:D2">
+    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H2">
-    <cfRule type="beginsWith" dxfId="4" priority="6" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2:D2">
+    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
-      <formula>LEFT((I2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
-      <formula>LEFT((I2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
-      <formula>LEFT((J2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((J2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1680,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U2" sqref="P2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,72 +1435,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1900,32 +1564,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1952,33 +1616,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>59</v>
+      <c r="A12" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -2003,32 +1667,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2056,327 +1720,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/6/TestData.xlsx
+++ b/ExecutionTestData/6/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>DBS</t>
+  </si>
+  <si>
+    <t>sakshi.juneja@crestechsoftware.com</t>
+  </si>
+  <si>
+    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -245,6 +251,12 @@
     <t>M4520239IUID</t>
   </si>
   <si>
+    <t>divya.devi@crestechsoftware.com</t>
+  </si>
+  <si>
+    <t>r36d4py9mtkykt29c925c7mg</t>
+  </si>
+  <si>
     <t>dbs_android_UAT_7_10_003_532.apk</t>
   </si>
   <si>
@@ -446,9 +458,30 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
+    <t>https://device.pcloudy.com</t>
+  </si>
+  <si>
+    <t>iWEALTH</t>
+  </si>
+  <si>
+    <t>NSTRAX15</t>
+  </si>
+  <si>
+    <t>425455</t>
+  </si>
+  <si>
+    <t>NSTRAX10</t>
+  </si>
+  <si>
+    <t>872465</t>
+  </si>
+  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -458,34 +491,10 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>121212</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11_iOS_15.2.1_51b24</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
-  </si>
-  <si>
-    <t>15.2.1</t>
-  </si>
-  <si>
-    <t>15.0.2</t>
-  </si>
-  <si>
-    <t>14.4.0</t>
-  </si>
-  <si>
-    <t>https://us.pcloudy.com</t>
-  </si>
-  <si>
-    <t>shafqat.ali@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>53zsqk4ddnvzrsmysky84dn3</t>
+    <t>SAMSUNG_GalaxyJ7Pro_Android_8.1.0_42e4e</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
   </si>
 </sst>
 </file>
@@ -535,7 +544,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +555,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -588,17 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,8 +678,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,24 +691,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -989,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1075,7 +1079,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1102,13 +1106,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1125,7 +1129,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1152,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1172,131 +1176,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>140</v>
+      <c r="B1" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1304,13 +1289,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="18">
-        <v>4</v>
-      </c>
-      <c r="D9" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1318,23 +1300,15 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:D2">
-    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
-      <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:D2">
-    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1344,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U2" sqref="P2:U2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,67 +1410,67 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" t="s">
-        <v>51</v>
-      </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1564,32 +1538,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1617,28 +1591,28 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1667,32 +1641,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1720,327 +1694,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/6/TestData.xlsx
+++ b/ExecutionTestData/6/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\rerun batches\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="153">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,15 +458,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>iWEALTH</t>
   </si>
   <si>
@@ -491,10 +485,19 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyJ7Pro_Android_8.1.0_42e4e</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+    <t>APPLE_iPhone11Pro_iOS_14.4.0_6ccce</t>
+  </si>
+  <si>
+    <t>14.4.0</t>
+  </si>
+  <si>
+    <t>https://us.pcloudy.com</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8_iOS_14.1.0_81551</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
   </si>
 </sst>
 </file>
@@ -994,7 +997,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1079,7 +1082,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1129,7 +1132,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1179,7 +1182,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1195,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>151</v>
@@ -1203,10 +1206,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,10 +1217,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,10 +1228,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1239,10 +1242,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1253,10 +1256,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,10 +1267,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,10 +1278,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,7 +1303,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/ExecutionTestData/6/TestData.xlsx
+++ b/ExecutionTestData/6/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final run master testdata\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="150">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>DBS</t>
-  </si>
-  <si>
-    <t>sakshi.juneja@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -458,22 +452,13 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>iWEALTH</t>
-  </si>
-  <si>
-    <t>NSTRAX15</t>
-  </si>
-  <si>
-    <t>425455</t>
-  </si>
-  <si>
-    <t>NSTRAX10</t>
-  </si>
-  <si>
-    <t>872465</t>
+    <t>https://device.pcloudy.com</t>
   </si>
   <si>
     <t>Samsung</t>
@@ -485,19 +470,25 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>https://us.pcloudy.com</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13mini_iOS_15.2.0_22426</t>
-  </si>
-  <si>
-    <t>15.2.0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneSE2020_iOS_13.6.1_4989f</t>
-  </si>
-  <si>
-    <t>13.6.1</t>
+    <t>121212</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>NOKIA_2.3_Android_10.0.0_8c175</t>
+  </si>
+  <si>
+    <t>REALME_7i_Android_10.0.0_3e0a3</t>
+  </si>
+  <si>
+    <t>OPPO_Realme2_Android_9.0.0_911fd</t>
+  </si>
+  <si>
+    <t>REALME_9i_Android_11.0.0_2410</t>
+  </si>
+  <si>
+    <t>REALME_X7_Android_11.0.0_f8c45</t>
   </si>
 </sst>
 </file>
@@ -547,7 +538,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,20 +551,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -626,12 +605,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,14 +673,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -997,7 +991,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1082,7 +1076,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1109,13 +1103,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1132,7 +1126,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1159,13 +1153,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1179,112 +1173,422 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="16" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1294,8 +1598,47 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1303,14 +1646,48 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
@@ -1321,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,67 +1790,67 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1541,32 +1918,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1594,28 +1971,28 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1644,32 +2021,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1697,327 +2074,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
